--- a/CardsTable.xlsx
+++ b/CardsTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProjects\IdlePolice-TowerDefence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0807E0FD-7460-4789-B7E9-DFB2C327F024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D8D7EF-A8BF-4D96-83B2-A712B5F4CBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39091797-FBD6-402E-988D-FBF46195352C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -187,6 +187,108 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Blizzard</t>
+  </si>
+  <si>
+    <t>A former military soldier specialized in cold weapons. He masterfully wields icy blades and has the ability to cool down any situation. Buran never loses his head even in the hottest battles.</t>
+  </si>
+  <si>
+    <t>Whirlwind</t>
+  </si>
+  <si>
+    <t>A close combat expert who fights with incredible speed and grace. He wields two katanas, creating a deadly dance of death. Whirlwind is unpredictable and incredibly dangerous to enemies.</t>
+  </si>
+  <si>
+    <t>Falcon</t>
+  </si>
+  <si>
+    <t>A highly trained sniper who is also skilled in close combat. He uses his precision and agility to strike enemies from a distance or up close. Falcon always hits the target.</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>A powerful warrior capable of dealing massive damage with his mighty strikes. He wields a two-handed weapon and brings destruction in his path. Thunder doesn't stop until all enemies are destroyed.</t>
+  </si>
+  <si>
+    <t>A former police officer with combat experience. He is known for his strength and unwavering determination. Steel is always ready to defend his comrades and the tower at any cost.</t>
+  </si>
+  <si>
+    <t>Sniper</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Soldier</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Veteran</t>
+  </si>
+  <si>
+    <t>Machine Gunner</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>Scout</t>
+  </si>
+  <si>
+    <t>Corsair</t>
+  </si>
+  <si>
+    <t>Marauder</t>
+  </si>
+  <si>
+    <t>An experienced marksman capable of taking down enemies from long distances. He uses powerful rifles and precise shots to neutralize threats to the tower and team.</t>
+  </si>
+  <si>
+    <t>A master of stealth and cunning. He uses dark methods and agility to strike enemies from close quarters. Shadow is always where he is least expected.</t>
+  </si>
+  <si>
+    <t>A loyal warrior ready to fight until the last bullet. He excels in automatic weapons and is always prepared to assist his team.</t>
+  </si>
+  <si>
+    <t>A skilled marksman relentlessly pursuing his target. He utilizes his accuracy and speed to eliminate enemies from long range.</t>
+  </si>
+  <si>
+    <t>A former military personnel with extensive combat experience. He knows all the intricacies of shooting and can handle any enemy standing in the way of his team.</t>
+  </si>
+  <si>
+    <t>A specialist in automatic weapons, creating a true firestorm on the battlefield. He can handle large numbers of enemies and provide fire support to his team.</t>
+  </si>
+  <si>
+    <t>A reliable defender always standing guard over the tower. He uses pistols and rifles to keep enemies under control and ensure the safety of the team.</t>
+  </si>
+  <si>
+    <t>A fearless and fast fighter who explores the territory and finds weak spots in the enemy's defense. He uses his wit and pistols to give the team an advantage.</t>
+  </si>
+  <si>
+    <t>A ruthless and merciless warrior who uses automatic weapons to sow destruction among enemy ranks. He shows no mercy and always pushes forward, destroying everything in his path.</t>
+  </si>
+  <si>
+    <t>Corsair is a skilled fighter with a maritime theme. He wields pistols and cannons to deliver devastating blows. Always seeking new treasures, Corsair takes risks for his team.</t>
+  </si>
+  <si>
+    <t>Hunter is a skilled marksman who eliminates enemies effortlessly. He uses pistols and rifles for long-range support. Always hunting for new prey, Hunter defends the tower against any threat.</t>
+  </si>
+  <si>
+    <t>Sentinel</t>
+  </si>
+  <si>
+    <t>A skilled police sniper, possessing impeccable accuracy and incredible reload speed. Always on the front line, he defends the tower against criminals and enemy attacks.</t>
+  </si>
+  <si>
+    <t>ID2</t>
   </si>
 </sst>
 </file>
@@ -586,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -704,13 +806,201 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -735,7 +1025,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -838,151 +1130,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1088,6 +1235,62 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
@@ -1097,7 +1300,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
+          <bgColor rgb="FFB58CDE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1111,7 +1314,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFB58CDE"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1171,62 +1374,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1249,22 +1396,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BFB80F8-384D-4404-909C-BA747B2377B4}" name="Таблица1" displayName="Таблица1" ref="B2:K30" totalsRowShown="0" headerRowDxfId="23" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="10">
-  <autoFilter ref="B2:K30" xr:uid="{1BFB80F8-384D-4404-909C-BA747B2377B4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BFB80F8-384D-4404-909C-BA747B2377B4}" name="Таблица1" displayName="Таблица1" ref="B2:L30" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="B2:L30" xr:uid="{1BFB80F8-384D-4404-909C-BA747B2377B4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K30">
     <sortCondition ref="B2:B30"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5D57BFAB-A1D5-4812-AB1F-BCC0B1B87737}" name="ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{411D690F-BBB5-4EF2-983B-7923A7731B04}" name="Изображение" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4266C83E-EF9A-496A-9D2D-73D46BA5E594}" name="Имя" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{5670FBB1-063C-4B4F-956F-D63A366CDE1B}" name="Описание" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{C2FD4931-B397-4B71-8477-CCF4829B738B}" name="Редкость" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{D29A294D-A403-4FEE-BA07-8C2F12CAA174}" name="Тип" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{8A7D4E80-E6FB-4ADF-B239-DD52DEE0B384}" name="Цель" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{CA3E640F-2E21-4013-AAD6-D3C9FBD93D0F}" name="Здоровье" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{95B81994-DAC8-4AED-8049-2CD5BD0B04A0}" name="Урон" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{12B6C2F9-B03B-4D92-AA8A-829EFA810E6E}" name="Скорость атаки" dataDxfId="0"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{5D57BFAB-A1D5-4812-AB1F-BCC0B1B87737}" name="ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{411D690F-BBB5-4EF2-983B-7923A7731B04}" name="Изображение" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{4266C83E-EF9A-496A-9D2D-73D46BA5E594}" name="Имя" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{5670FBB1-063C-4B4F-956F-D63A366CDE1B}" name="Описание" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{C2FD4931-B397-4B71-8477-CCF4829B738B}" name="Редкость" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{D29A294D-A403-4FEE-BA07-8C2F12CAA174}" name="Тип" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{8A7D4E80-E6FB-4ADF-B239-DD52DEE0B384}" name="Цель" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{CA3E640F-2E21-4013-AAD6-D3C9FBD93D0F}" name="Здоровье" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{95B81994-DAC8-4AED-8049-2CD5BD0B04A0}" name="Урон" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{12B6C2F9-B03B-4D92-AA8A-829EFA810E6E}" name="Скорость атаки" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{2246C422-79A2-4DD0-BAD3-73A2D091D9F1}" name="ID2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1567,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5FD659-83EE-49CD-97E9-59275B7C01EE}">
-  <dimension ref="B2:K30"/>
+  <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1578,7 +1726,7 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="6.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
@@ -1590,7 +1738,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1621,8 +1769,11 @@
       <c r="K2" s="27" t="s">
         <v>9</v>
       </c>
+      <c r="L2" s="45" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="28">
         <v>0</v>
       </c>
@@ -1630,10 +1781,10 @@
         <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>44</v>
@@ -1653,8 +1804,11 @@
       <c r="K3" s="29">
         <v>3</v>
       </c>
+      <c r="L3" s="46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="30">
         <v>1</v>
       </c>
@@ -1662,10 +1816,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>53</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>44</v>
@@ -1685,8 +1839,11 @@
       <c r="K4" s="31">
         <v>3</v>
       </c>
+      <c r="L4" s="47">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="30">
         <v>2</v>
       </c>
@@ -1694,10 +1851,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>55</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -1717,8 +1874,11 @@
       <c r="K5" s="31">
         <v>2.64</v>
       </c>
+      <c r="L5" s="47">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="30">
         <v>3</v>
       </c>
@@ -1726,10 +1886,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>57</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>43</v>
@@ -1749,8 +1909,11 @@
       <c r="K6" s="31">
         <v>2.12</v>
       </c>
+      <c r="L6" s="47">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="32">
         <v>4</v>
       </c>
@@ -1758,10 +1921,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>59</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>45</v>
@@ -1779,10 +1942,13 @@
         <v>48</v>
       </c>
       <c r="K7" s="33">
-        <v>1.64</v>
+        <v>1.88</v>
+      </c>
+      <c r="L7" s="47">
+        <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="18">
         <v>5</v>
       </c>
@@ -1790,10 +1956,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>50</v>
+        <v>61</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>71</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>44</v>
@@ -1813,8 +1979,11 @@
       <c r="K8" s="22">
         <v>1.78</v>
       </c>
+      <c r="L8" s="47">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="23">
         <v>6</v>
       </c>
@@ -1822,10 +1991,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>44</v>
@@ -1845,8 +2014,11 @@
       <c r="K9" s="36">
         <v>2</v>
       </c>
+      <c r="L9" s="47">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="23">
         <v>7</v>
       </c>
@@ -1854,10 +2026,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>73</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>44</v>
@@ -1877,8 +2049,11 @@
       <c r="K10" s="36">
         <v>1.9</v>
       </c>
+      <c r="L10" s="47">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="23">
         <v>8</v>
       </c>
@@ -1886,10 +2061,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>74</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>44</v>
@@ -1909,8 +2084,11 @@
       <c r="K11" s="36">
         <v>1.94</v>
       </c>
+      <c r="L11" s="47">
+        <v>8</v>
+      </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="23">
         <v>9</v>
       </c>
@@ -1918,10 +2096,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>75</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>42</v>
@@ -1941,19 +2119,22 @@
       <c r="K12" s="36">
         <v>1.74</v>
       </c>
+      <c r="L12" s="47">
+        <v>9</v>
+      </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="23">
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>50</v>
+      <c r="D13" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>76</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>42</v>
@@ -1973,8 +2154,11 @@
       <c r="K13" s="36">
         <v>1.66</v>
       </c>
+      <c r="L13" s="47">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="23">
         <v>11</v>
       </c>
@@ -1982,10 +2166,10 @@
         <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>42</v>
@@ -2005,8 +2189,11 @@
       <c r="K14" s="36">
         <v>1.62</v>
       </c>
+      <c r="L14" s="47">
+        <v>11</v>
+      </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="23">
         <v>12</v>
       </c>
@@ -2014,10 +2201,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>78</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>42</v>
@@ -2037,8 +2224,11 @@
       <c r="K15" s="36">
         <v>1.68</v>
       </c>
+      <c r="L15" s="47">
+        <v>12</v>
+      </c>
     </row>
-    <row r="16" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="23">
         <v>13</v>
       </c>
@@ -2046,10 +2236,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>80</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>43</v>
@@ -2069,8 +2259,11 @@
       <c r="K16" s="36">
         <v>1.38</v>
       </c>
+      <c r="L16" s="47">
+        <v>13</v>
+      </c>
     </row>
-    <row r="17" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="23">
         <v>14</v>
       </c>
@@ -2078,10 +2271,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>43</v>
@@ -2101,8 +2294,11 @@
       <c r="K17" s="36">
         <v>1.36</v>
       </c>
+      <c r="L17" s="47">
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="23">
         <v>15</v>
       </c>
@@ -2110,10 +2306,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>81</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>43</v>
@@ -2131,10 +2327,13 @@
         <v>38</v>
       </c>
       <c r="K18" s="36">
-        <v>1.4</v>
+        <v>1.22</v>
+      </c>
+      <c r="L18" s="47">
+        <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="24">
         <v>16</v>
       </c>
@@ -2142,10 +2341,10 @@
         <v>25</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>50</v>
+        <v>82</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>83</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>45</v>
@@ -2163,10 +2362,13 @@
         <v>44</v>
       </c>
       <c r="K19" s="38">
-        <v>1.1200000000000001</v>
+        <v>0.86</v>
+      </c>
+      <c r="L19" s="47">
+        <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="18">
         <v>17</v>
       </c>
@@ -2176,7 +2378,7 @@
       <c r="D20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="43" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="19" t="s">
@@ -2192,13 +2394,16 @@
         <v>104</v>
       </c>
       <c r="J20" s="21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K20" s="22">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="L20" s="47">
+        <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="23">
         <v>18</v>
       </c>
@@ -2208,7 +2413,7 @@
       <c r="D21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="41" t="s">
         <v>50</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -2224,13 +2429,16 @@
         <v>148</v>
       </c>
       <c r="J21" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K21" s="36">
-        <v>0</v>
+        <v>1.82</v>
+      </c>
+      <c r="L21" s="47">
+        <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="23">
         <v>19</v>
       </c>
@@ -2240,7 +2448,7 @@
       <c r="D22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="41" t="s">
         <v>50</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -2256,13 +2464,16 @@
         <v>132</v>
       </c>
       <c r="J22" s="13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K22" s="36">
-        <v>0</v>
+        <v>1.8</v>
+      </c>
+      <c r="L22" s="47">
+        <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="24">
         <v>20</v>
       </c>
@@ -2272,7 +2483,7 @@
       <c r="D23" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="44" t="s">
         <v>50</v>
       </c>
       <c r="F23" s="25" t="s">
@@ -2288,13 +2499,16 @@
         <v>214</v>
       </c>
       <c r="J23" s="37">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K23" s="38">
-        <v>0</v>
+        <v>1.64</v>
+      </c>
+      <c r="L23" s="47">
+        <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="28">
         <v>21</v>
       </c>
@@ -2304,7 +2518,7 @@
       <c r="D24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="41" t="s">
         <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -2320,13 +2534,16 @@
         <v>34</v>
       </c>
       <c r="J24" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K24" s="29">
-        <v>0</v>
+        <v>1.72</v>
+      </c>
+      <c r="L24" s="47">
+        <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="30">
         <v>22</v>
       </c>
@@ -2336,7 +2553,7 @@
       <c r="D25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="41" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -2352,13 +2569,16 @@
         <v>46</v>
       </c>
       <c r="J25" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K25" s="29">
-        <v>0</v>
+        <v>1.64</v>
+      </c>
+      <c r="L25" s="47">
+        <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="30">
         <v>23</v>
       </c>
@@ -2368,7 +2588,7 @@
       <c r="D26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="41" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -2384,13 +2604,16 @@
         <v>62</v>
       </c>
       <c r="J26" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K26" s="29">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="L26" s="47">
+        <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="32">
         <v>24</v>
       </c>
@@ -2400,7 +2623,7 @@
       <c r="D27" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="42" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
@@ -2416,13 +2639,16 @@
         <v>80</v>
       </c>
       <c r="J27" s="34">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K27" s="35">
-        <v>0</v>
+        <v>1.28</v>
+      </c>
+      <c r="L27" s="47">
+        <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="18">
         <v>25</v>
       </c>
@@ -2432,7 +2658,7 @@
       <c r="D28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="43" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="19" t="s">
@@ -2448,13 +2674,16 @@
         <v>46</v>
       </c>
       <c r="J28" s="21">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K28" s="22">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="L28" s="47">
+        <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="23">
         <v>26</v>
       </c>
@@ -2464,7 +2693,7 @@
       <c r="D29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="41" t="s">
         <v>50</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -2480,13 +2709,16 @@
         <v>54</v>
       </c>
       <c r="J29" s="13">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K29" s="36">
-        <v>0</v>
+        <v>3.14</v>
+      </c>
+      <c r="L29" s="47">
+        <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="24">
         <v>27</v>
       </c>
@@ -2496,7 +2728,7 @@
       <c r="D30" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="44" t="s">
         <v>50</v>
       </c>
       <c r="F30" s="25" t="s">
@@ -2512,10 +2744,13 @@
         <v>62</v>
       </c>
       <c r="J30" s="37">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="K30" s="38">
-        <v>0</v>
+        <v>2.06</v>
+      </c>
+      <c r="L30" s="48">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2562,44 +2797,44 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G30">
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Melee">
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="Melee">
       <formula>NOT(ISERROR(SEARCH("Melee",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Doctor">
+    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="Doctor">
       <formula>NOT(ISERROR(SEARCH("Doctor",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Mage">
+    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="Mage">
       <formula>NOT(ISERROR(SEARCH("Mage",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="Tank">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Tank">
       <formula>NOT(ISERROR(SEARCH("Tank",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="Shooter">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Shooter">
       <formula>NOT(ISERROR(SEARCH("Shooter",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H30">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="First">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="First">
       <formula>NOT(ISERROR(SEARCH("First",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Last">
+    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="Last">
       <formula>NOT(ISERROR(SEARCH("Last",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Random">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Random">
       <formula>NOT(ISERROR(SEARCH("Random",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F30">
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="NORMAL">
+    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="NORMAL">
       <formula>NOT(ISERROR(SEARCH("NORMAL",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="RARE">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="RARE">
       <formula>NOT(ISERROR(SEARCH("RARE",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="MAGIC">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="MAGIC">
       <formula>NOT(ISERROR(SEARCH("MAGIC",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="LEGENDARY">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="LEGENDARY">
       <formula>NOT(ISERROR(SEARCH("LEGENDARY",F3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CardsTable.xlsx
+++ b/CardsTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProjects\IdlePolice-TowerDefence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D8D7EF-A8BF-4D96-83B2-A712B5F4CBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C279FB-25BE-44DE-8A1F-4EF4AB494E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39091797-FBD6-402E-988D-FBF46195352C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Mage</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>Steel</t>
   </si>
   <si>
@@ -289,6 +286,72 @@
   </si>
   <si>
     <t>ID2</t>
+  </si>
+  <si>
+    <t>Healer</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>Mender</t>
+  </si>
+  <si>
+    <t>Protector</t>
+  </si>
+  <si>
+    <t>An experienced doctor with healing abilities and low damage. Provides support to the team.</t>
+  </si>
+  <si>
+    <t>A male with medical training, capable of healing and possessing low attack power. Protects his comrades.</t>
+  </si>
+  <si>
+    <t>A female doctor with healing skills and moderate damage. Inspires allies with her life-saving abilities.</t>
+  </si>
+  <si>
+    <t>A mystical character with healing abilities and low damage. Safeguards the team from enemy threats.</t>
+  </si>
+  <si>
+    <t>Steelshield</t>
+  </si>
+  <si>
+    <t>Ironfist</t>
+  </si>
+  <si>
+    <t>Armorguard</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>A former soldier with high armor and unwavering resilience. Protects the team from enemy attacks and stands at the frontlines.</t>
+  </si>
+  <si>
+    <t>A skilled police officer with powerful offensive skills and high endurance. Deals devastating blows to enemies and safeguards the borders.</t>
+  </si>
+  <si>
+    <t>A veteran army soldier with massive armor and high survivability. Securely defends the team from enemy attacks and ensures safety.</t>
+  </si>
+  <si>
+    <t>An unstoppable fighter with impenetrable armor and immense endurance. Stands in defense of the city, repelling enemy attacks and maintaining order.</t>
+  </si>
+  <si>
+    <t>Frostfang</t>
+  </si>
+  <si>
+    <t>Flame</t>
+  </si>
+  <si>
+    <t>A powerful mage with fire abilities and devastating damage. The slow attack speed is compensated by the strength of his fire spells.</t>
+  </si>
+  <si>
+    <t>A cold mage capable of dealing massive damage with ice and frost attacks. His slow attack speed is compensated by the power of his icy spells.</t>
+  </si>
+  <si>
+    <t>A wise monk with magical abilities. Deals immense damage with healing spells and mystical attacks. His slow attack speed is compensated by his incredible magical skills and wisdom.</t>
+  </si>
+  <si>
+    <t>Mystic</t>
   </si>
 </sst>
 </file>
@@ -917,108 +980,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1146,6 +1107,108 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1404,13 +1467,13 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5D57BFAB-A1D5-4812-AB1F-BCC0B1B87737}" name="ID" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{411D690F-BBB5-4EF2-983B-7923A7731B04}" name="Изображение" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{4266C83E-EF9A-496A-9D2D-73D46BA5E594}" name="Имя" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{5670FBB1-063C-4B4F-956F-D63A366CDE1B}" name="Описание" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{C2FD4931-B397-4B71-8477-CCF4829B738B}" name="Редкость" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{D29A294D-A403-4FEE-BA07-8C2F12CAA174}" name="Тип" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{8A7D4E80-E6FB-4ADF-B239-DD52DEE0B384}" name="Цель" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{CA3E640F-2E21-4013-AAD6-D3C9FBD93D0F}" name="Здоровье" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{95B81994-DAC8-4AED-8049-2CD5BD0B04A0}" name="Урон" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{4266C83E-EF9A-496A-9D2D-73D46BA5E594}" name="Имя" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{5670FBB1-063C-4B4F-956F-D63A366CDE1B}" name="Описание" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{C2FD4931-B397-4B71-8477-CCF4829B738B}" name="Редкость" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{D29A294D-A403-4FEE-BA07-8C2F12CAA174}" name="Тип" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{8A7D4E80-E6FB-4ADF-B239-DD52DEE0B384}" name="Цель" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{CA3E640F-2E21-4013-AAD6-D3C9FBD93D0F}" name="Здоровье" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{95B81994-DAC8-4AED-8049-2CD5BD0B04A0}" name="Урон" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{12B6C2F9-B03B-4D92-AA8A-829EFA810E6E}" name="Скорость атаки" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{2246C422-79A2-4DD0-BAD3-73A2D091D9F1}" name="ID2" dataDxfId="0"/>
   </tableColumns>
@@ -1717,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5FD659-83EE-49CD-97E9-59275B7C01EE}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1770,7 +1833,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -1781,10 +1844,10 @@
         <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>44</v>
@@ -1816,10 +1879,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>52</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>53</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>44</v>
@@ -1851,10 +1914,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="41" t="s">
         <v>54</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>55</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -1886,10 +1949,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>56</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>57</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>43</v>
@@ -1921,10 +1984,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="42" t="s">
         <v>58</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>59</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>45</v>
@@ -1956,10 +2019,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>44</v>
@@ -1991,10 +2054,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>44</v>
@@ -2026,10 +2089,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>44</v>
@@ -2061,10 +2124,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>44</v>
@@ -2096,10 +2159,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>42</v>
@@ -2131,10 +2194,10 @@
         <v>19</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>42</v>
@@ -2166,10 +2229,10 @@
         <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>42</v>
@@ -2201,10 +2264,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>42</v>
@@ -2236,10 +2299,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>43</v>
@@ -2271,10 +2334,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>43</v>
@@ -2306,10 +2369,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>43</v>
@@ -2341,10 +2404,10 @@
         <v>25</v>
       </c>
       <c r="D19" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="44" t="s">
         <v>82</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>83</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>45</v>
@@ -2376,10 +2439,10 @@
         <v>26</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>44</v>
@@ -2411,10 +2474,10 @@
         <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>42</v>
@@ -2446,10 +2509,10 @@
         <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>42</v>
@@ -2481,10 +2544,10 @@
         <v>29</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>43</v>
@@ -2516,10 +2579,10 @@
         <v>30</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>44</v>
@@ -2551,10 +2614,10 @@
         <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>42</v>
@@ -2586,10 +2649,10 @@
         <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>43</v>
@@ -2621,10 +2684,10 @@
         <v>33</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>45</v>
@@ -2656,10 +2719,10 @@
         <v>34</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>44</v>
@@ -2691,10 +2754,10 @@
         <v>35</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>42</v>
@@ -2726,10 +2789,10 @@
         <v>37</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>45</v>
